--- a/Drone Project/SayedConnerSafieddineDroneEstimate.xlsx
+++ b/Drone Project/SayedConnerSafieddineDroneEstimate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="134">
   <si>
     <t>Project Name</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>3 minutes</t>
+  </si>
+  <si>
+    <t>8minutes</t>
   </si>
   <si>
     <t>3 hours</t>
@@ -2226,7 +2229,7 @@
         <v>37</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G10" s="19">
         <v>0.2</v>
@@ -2244,13 +2247,13 @@
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>27</v>
@@ -2265,19 +2268,19 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>27</v>
@@ -2292,19 +2295,19 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>27</v>
@@ -2319,19 +2322,19 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>27</v>
@@ -2346,7 +2349,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>25</v>
@@ -2373,19 +2376,19 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>27</v>
@@ -2400,19 +2403,19 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>27</v>
@@ -2427,19 +2430,19 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>27</v>
@@ -2458,7 +2461,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="18">
@@ -2481,7 +2484,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="18">
@@ -2504,7 +2507,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="18">
@@ -2527,7 +2530,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="18">
@@ -2550,7 +2553,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="18">
@@ -2573,7 +2576,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="18">
@@ -2592,7 +2595,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="G25" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H25" s="21">
         <f>SUM(H10:H24)</f>
@@ -2603,7 +2606,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -2614,10 +2617,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
@@ -2635,10 +2638,10 @@
         <v>25</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
@@ -2656,10 +2659,10 @@
         <v>25</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
@@ -2677,10 +2680,10 @@
         <v>25</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
@@ -2698,10 +2701,10 @@
         <v>25</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
@@ -2719,10 +2722,10 @@
         <v>25</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
@@ -2740,10 +2743,10 @@
         <v>25</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
@@ -2761,10 +2764,10 @@
         <v>25</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
@@ -2782,10 +2785,10 @@
         <v>25</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
@@ -2803,10 +2806,10 @@
         <v>25</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
@@ -2822,7 +2825,7 @@
         <v>25</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
@@ -2839,7 +2842,7 @@
         <v>25</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
@@ -2856,7 +2859,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
@@ -2873,7 +2876,7 @@
         <v>25</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -2890,7 +2893,7 @@
         <v>25</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
@@ -2907,7 +2910,7 @@
         <v>25</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
@@ -2924,7 +2927,7 @@
         <v>25</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
@@ -2941,7 +2944,7 @@
         <v>25</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
@@ -2958,7 +2961,7 @@
         <v>25</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
@@ -2975,7 +2978,7 @@
         <v>25</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
@@ -2992,7 +2995,7 @@
         <v>25</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
@@ -3009,7 +3012,7 @@
         <v>25</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
@@ -3026,7 +3029,7 @@
         <v>25</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
@@ -3043,7 +3046,7 @@
         <v>25</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
@@ -3060,7 +3063,7 @@
         <v>25</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
@@ -3073,7 +3076,7 @@
     </row>
     <row r="52" ht="17.25" customHeight="1">
       <c r="G52" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H52" s="21">
         <f>SUM(H27:H51)</f>
@@ -4070,28 +4073,28 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>21</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -4114,15 +4117,15 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="19">
         <v>3.0</v>
@@ -4146,7 +4149,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="G4" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H4" s="21">
         <f>SUM(H3)</f>
@@ -4155,7 +4158,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="G5" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H5" s="26">
         <f>H4</f>
@@ -5187,25 +5190,25 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -5228,15 +5231,15 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="19">
         <v>2.0</v>
@@ -5257,7 +5260,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>25</v>
@@ -5281,7 +5284,7 @@
     </row>
     <row r="5" ht="16.5" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>25</v>
@@ -5305,7 +5308,7 @@
     </row>
     <row r="6" ht="17.25" customHeight="1">
       <c r="F6" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G6" s="21">
         <f>SUM(G2:G5)</f>
@@ -5314,12 +5317,12 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>25</v>
@@ -5343,7 +5346,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>25</v>
@@ -5367,10 +5370,10 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" s="19">
         <v>2.0</v>
@@ -5391,7 +5394,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="F11" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G11" s="21">
         <f>SUM(G8:G10)</f>
@@ -5400,12 +5403,12 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>25</v>
@@ -5429,10 +5432,10 @@
     </row>
     <row r="14" ht="18.0" customHeight="1">
       <c r="A14" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" s="24">
         <v>2.0</v>
@@ -5453,7 +5456,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="F15" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G15" s="21">
         <f>SUM(G13:G14)</f>
@@ -5462,7 +5465,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="F16" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G16" s="26">
         <f>SUM(G6, G11, G15)</f>
@@ -6584,25 +6587,25 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -6625,15 +6628,15 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="19">
         <v>0.3</v>
@@ -6672,7 +6675,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>25</v>
@@ -6696,10 +6699,10 @@
     </row>
     <row r="5" ht="16.5" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="19">
         <v>0.3</v>
@@ -6738,7 +6741,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="F6" s="29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G6" s="21">
         <f>SUM(G2:G5)</f>
@@ -6747,15 +6750,15 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="19">
         <v>2.0</v>
@@ -6776,7 +6779,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="F9" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G9" s="21">
         <f>SUM(G8)</f>
@@ -6785,15 +6788,15 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" ht="17.25" customHeight="1">
       <c r="A11" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C11" s="24">
         <v>1.0</v>
@@ -6814,10 +6817,10 @@
     </row>
     <row r="12" ht="17.25" customHeight="1">
       <c r="A12" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>104</v>
       </c>
       <c r="C12" s="24">
         <v>1.0</v>
@@ -6838,10 +6841,10 @@
     </row>
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C13" s="19">
         <v>1.0</v>
@@ -6862,7 +6865,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="F14" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G14" s="21">
         <f>SUM(G11:G13)</f>
@@ -7994,25 +7997,25 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -8035,12 +8038,12 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>25</v>
@@ -8082,7 +8085,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>25</v>
@@ -8124,7 +8127,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>25</v>
@@ -8166,7 +8169,7 @@
     </row>
     <row r="6" ht="16.5" customHeight="1">
       <c r="A6" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>25</v>
@@ -8208,10 +8211,10 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="19">
         <v>1.0</v>
@@ -8250,7 +8253,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="F8" s="29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G8" s="21">
         <f>SUM(G3:G7)</f>
@@ -8259,15 +8262,15 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1">
       <c r="A10" s="24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" s="24">
         <v>2.0</v>
@@ -8288,10 +8291,10 @@
     </row>
     <row r="11" ht="18.0" customHeight="1">
       <c r="A11" s="24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" s="24">
         <v>0.5</v>
@@ -8312,7 +8315,7 @@
     </row>
     <row r="12" ht="17.25" customHeight="1">
       <c r="F12" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G12" s="21">
         <f>SUM(G10:G11)</f>
@@ -8321,15 +8324,15 @@
     </row>
     <row r="13" ht="17.25" customHeight="1">
       <c r="A13" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" s="24">
         <v>0.5</v>
@@ -8350,10 +8353,10 @@
     </row>
     <row r="15" ht="18.0" customHeight="1">
       <c r="A15" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>104</v>
       </c>
       <c r="C15" s="24">
         <v>0.5</v>
@@ -8374,10 +8377,10 @@
     </row>
     <row r="16" ht="18.0" customHeight="1">
       <c r="A16" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C16" s="19">
         <v>0.5</v>
@@ -8416,7 +8419,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="F17" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G17" s="21">
         <f>SUM(G14:G16)</f>
@@ -9543,25 +9546,25 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -9584,15 +9587,15 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="19">
         <v>2.0</v>
@@ -9631,7 +9634,7 @@
     </row>
     <row r="4" ht="17.25" customHeight="1">
       <c r="A4" s="24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>25</v>
@@ -9655,7 +9658,7 @@
     </row>
     <row r="5" ht="17.25" customHeight="1">
       <c r="A5" s="24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>25</v>
@@ -9679,7 +9682,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="F6" s="29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
@@ -9688,15 +9691,15 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1">
       <c r="A8" s="24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="24">
         <v>2.0</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="9" ht="17.25" customHeight="1">
       <c r="F9" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G9" s="21">
         <f>SUM(G8)</f>
@@ -9726,15 +9729,15 @@
     </row>
     <row r="10" ht="17.25" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" s="24">
         <v>3.0</v>
@@ -9755,7 +9758,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="F12" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G12" s="21">
         <f>SUM(G11)</f>
